--- a/Experiments/Results/correlation_pvalues_new.xlsx
+++ b/Experiments/Results/correlation_pvalues_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86190a8675cd6fc3/Desktop/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\SE_PROJECTS\GreenDB\Experiments\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2F5C0B04-2CC8-4C19-B4E0-EEA71102DDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1434E128-14A6-4BA5-B4B7-DBEC7BAA39A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB5E9B5-0675-4656-89BD-5CEF359235E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{6ED0D532-E5D9-42F2-B060-C5C05AE4A528}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{6ED0D532-E5D9-42F2-B060-C5C05AE4A528}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,20 +178,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFFF0000"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF0000FF"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFFF0000"/>
-      <name val="Open Sans"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,12 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,66 +528,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59F5118-24C2-4153-B8F0-4117B62D9991}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="3" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="6" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="12" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.12766</v>
       </c>
       <c r="C3" s="1">
         <v>0.72524999999999995</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1">
@@ -604,7 +608,7 @@
       <c r="F3" s="1">
         <v>0.65046999999999999</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="1">
@@ -613,7 +617,7 @@
       <c r="I3" s="1">
         <v>0.51088</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="1">
@@ -624,16 +628,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>4.1709999999999997E-2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
@@ -642,7 +646,7 @@
       <c r="F4" s="1">
         <v>0.67606999999999995</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="1">
@@ -651,7 +655,7 @@
       <c r="I4" s="1">
         <v>0.82716000000000001</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -662,7 +666,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -671,7 +675,7 @@
       <c r="C5" s="1">
         <v>0.33578000000000002</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1">
@@ -680,7 +684,7 @@
       <c r="F5" s="1">
         <v>0.82767999999999997</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="1">
@@ -689,7 +693,7 @@
       <c r="I5" s="1">
         <v>0.20784</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="1">
@@ -700,7 +704,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
@@ -709,25 +713,25 @@
       <c r="C6" s="1">
         <v>0.80098999999999998</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
         <v>-0.90303</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="1">
@@ -738,7 +742,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -747,7 +751,7 @@
       <c r="C7" s="1">
         <v>0.21448999999999999</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1">
@@ -756,7 +760,7 @@
       <c r="F7" s="1">
         <v>0.70006000000000002</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1">
@@ -765,7 +769,7 @@
       <c r="I7" s="1">
         <v>0.1512</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="1">
@@ -776,50 +780,50 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
@@ -828,7 +832,7 @@
       <c r="C11" s="1">
         <v>0.61295999999999995</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -837,7 +841,7 @@
       <c r="F11" s="1">
         <v>0.16006999999999999</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="1">
@@ -846,7 +850,7 @@
       <c r="I11" s="1">
         <v>0.18540000000000001</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="1">
@@ -857,7 +861,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1">
@@ -866,7 +870,7 @@
       <c r="C12" s="1">
         <v>0.70106999999999997</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1">
@@ -875,7 +879,7 @@
       <c r="F12" s="1">
         <v>0.75636000000000003</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="1">
@@ -884,7 +888,7 @@
       <c r="I12" s="1">
         <v>0.72524999999999995</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="1">
@@ -895,7 +899,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1">
@@ -904,7 +908,7 @@
       <c r="C13" s="1">
         <v>9.2789999999999997E-2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1">
@@ -913,7 +917,7 @@
       <c r="F13" s="1">
         <v>0.76348000000000005</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="1">
@@ -922,7 +926,7 @@
       <c r="I13" s="1">
         <v>0.10505</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="1">
@@ -933,7 +937,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1">
@@ -942,7 +946,7 @@
       <c r="C14" s="1">
         <v>9.7170000000000006E-2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -951,7 +955,7 @@
       <c r="F14" s="1">
         <v>0.23035</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="1">
@@ -960,7 +964,7 @@
       <c r="I14" s="1">
         <v>0.44584000000000001</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="1">
@@ -971,7 +975,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1">
@@ -980,7 +984,7 @@
       <c r="C15" s="1">
         <v>0.63722000000000001</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1">
@@ -989,7 +993,7 @@
       <c r="F15" s="1">
         <v>0.96023999999999998</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="1">
@@ -998,7 +1002,7 @@
       <c r="I15" s="1">
         <v>0.70093000000000005</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1">
@@ -1009,77 +1013,77 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="K19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
         <v>0.74546000000000001</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1.333E-2</v>
       </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.72121000000000002</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>1.857E-2</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="1">
@@ -1090,7 +1094,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1">
@@ -1099,7 +1103,7 @@
       <c r="C21" s="1">
         <v>0.60321999999999998</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="1">
@@ -1108,7 +1112,7 @@
       <c r="F21" s="1">
         <v>0.90736000000000006</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="1">
@@ -1117,7 +1121,7 @@
       <c r="I21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="1">
@@ -1128,16 +1132,16 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
         <v>0.64437999999999995</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>4.4310000000000002E-2</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1">
@@ -1146,27 +1150,27 @@
       <c r="F22" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.64847999999999995</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="J22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="1">
         <v>0.64847999999999995</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1">
@@ -1175,7 +1179,7 @@
       <c r="C23" s="1">
         <v>0.34504000000000001</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1">
@@ -1184,16 +1188,16 @@
       <c r="F23" s="1">
         <v>0.22911000000000001</v>
       </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.70337000000000005</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>2.324E-2</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K23" s="1">
@@ -1204,7 +1208,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1">
@@ -1213,7 +1217,7 @@
       <c r="C24" s="1">
         <v>0.13694000000000001</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1">
@@ -1222,16 +1226,16 @@
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.81818000000000002</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>3.81E-3</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="1">
@@ -1242,50 +1246,50 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="H28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="K28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1">
@@ -1294,7 +1298,7 @@
       <c r="C29" s="1">
         <v>0.59021000000000001</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1303,7 +1307,7 @@
       <c r="F29" s="1">
         <v>0.31608999999999998</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="1">
@@ -1312,7 +1316,7 @@
       <c r="I29" s="1">
         <v>0.73794000000000004</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K29" s="1">
@@ -1323,7 +1327,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1">
@@ -1332,16 +1336,16 @@
       <c r="C30" s="1">
         <v>0.46568999999999999</v>
       </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
         <v>0.7792</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>7.8899999999999994E-3</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="1">
@@ -1350,7 +1354,7 @@
       <c r="I30" s="1">
         <v>0.19208</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K30" s="1">
@@ -1361,7 +1365,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1370,7 +1374,7 @@
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1">
@@ -1379,36 +1383,36 @@
       <c r="F31" s="1">
         <v>0.19889000000000001</v>
       </c>
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.66464999999999996</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>3.603E-2</v>
       </c>
-      <c r="J31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="J31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="1">
         <v>0.68293000000000004</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>2.9520000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1">
         <v>0.71125000000000005</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>2.1090000000000001E-2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="1">
@@ -1417,7 +1421,7 @@
       <c r="F32" s="1">
         <v>0.82767999999999997</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -1426,7 +1430,7 @@
       <c r="I32" s="1">
         <v>0.31608999999999998</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K32" s="1">
@@ -1437,7 +1441,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1">
@@ -1446,7 +1450,7 @@
       <c r="C33" s="1">
         <v>0.20082</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1455,7 +1459,7 @@
       <c r="F33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="1">
@@ -1464,7 +1468,7 @@
       <c r="I33" s="1">
         <v>0.22017999999999999</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K33" s="1">
@@ -1475,50 +1479,50 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K37" t="s">
-        <v>2</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="K37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1527,7 +1531,7 @@
       <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1">
@@ -1536,7 +1540,7 @@
       <c r="F38" s="1">
         <v>0.15561</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="1">
@@ -1545,18 +1549,18 @@
       <c r="I38" s="1">
         <v>0.36547000000000002</v>
       </c>
-      <c r="J38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="1">
         <v>0.72341</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>1.805E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="1">
@@ -1565,16 +1569,16 @@
       <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>4.2160000000000003E-2</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -1583,7 +1587,7 @@
       <c r="I39" s="1">
         <v>0.76348000000000005</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="1">
@@ -1594,25 +1598,25 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
         <v>0.75380000000000003</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>1.179E-2</v>
       </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
         <v>0.66869999999999996</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>3.4509999999999999E-2</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="1">
@@ -1621,45 +1625,45 @@
       <c r="I40" s="1">
         <v>0.98673999999999995</v>
       </c>
-      <c r="J40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="J40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="1">
         <v>0.79393999999999998</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
         <v>0.65654000000000001</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1">
         <v>0.76970000000000005</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
         <v>0.72121000000000002</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>1.857E-2</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -1670,273 +1674,273 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1">
         <v>0.72121000000000002</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>1.857E-2</v>
       </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
         <v>0.78181999999999996</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>7.5500000000000003E-3</v>
       </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="2">
+      <c r="G42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="1">
         <v>0.87878999999999996</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>8.0999999999999996E-4</v>
       </c>
-      <c r="J42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="J42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="1">
         <v>0.84241999999999995</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>2.2200000000000002E-3</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="E46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="H46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K46" t="s">
-        <v>2</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="K46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="1">
         <v>0.97333000000000003</v>
       </c>
-      <c r="G47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1">
         <v>-1.8239999999999999E-2</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="1">
         <v>0.96011999999999997</v>
       </c>
-      <c r="J47" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="4">
+      <c r="J47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="1">
         <v>-0.15806000000000001</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="1">
         <v>0.66276000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="4">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1">
         <v>1.8239999999999999E-2</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="1">
         <v>0.96011999999999997</v>
       </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1">
         <v>0.29388999999999998</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="1">
         <v>0.40982000000000002</v>
       </c>
-      <c r="G48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="G48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1">
         <v>-4.863E-2</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="1">
         <v>0.89387000000000005</v>
       </c>
-      <c r="J48" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="4">
+      <c r="J48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="1">
         <v>-0.25531999999999999</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="1">
         <v>0.47649000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="1">
         <v>0.4047</v>
       </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1">
         <v>0.22423999999999999</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="1">
         <v>0.53339999999999999</v>
       </c>
-      <c r="G49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="G49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="1">
         <v>0.93376999999999999</v>
       </c>
-      <c r="J49" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" s="4">
+      <c r="J49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="1">
         <v>9.0910000000000005E-2</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="1">
         <v>0.80276999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="4">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1">
         <v>0.35258</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="1">
         <v>0.31766</v>
       </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="1">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="G50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="4">
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
         <v>0.34650999999999998</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="1">
         <v>0.32666000000000001</v>
       </c>
-      <c r="J50" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="4">
+      <c r="J50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="1">
         <v>-4.863E-2</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="1">
         <v>0.89387000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="4">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1">
         <v>0.49091000000000001</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>0.14965999999999999</v>
       </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1">
         <v>0.49847999999999998</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="1">
         <v>0.14252000000000001</v>
       </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="4">
+      <c r="G51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="1">
         <v>0.40605999999999998</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="1">
         <v>0.24428</v>
       </c>
-      <c r="J51" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="J51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="1">
         <v>0.77566999999999997</v>
       </c>
     </row>
